--- a/StructureDefinition-ext-R5-ActorDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ActorDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-ActorDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ActorDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -393,6 +393,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.url</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -439,6 +442,9 @@
     <t>Extension.extension:version.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.version</t>
+  </si>
+  <si>
     <t>Extension.extension:version.value[x]</t>
   </si>
   <si>
@@ -467,6 +473,9 @@
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.versionAlgorithm</t>
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.value[x]</t>
@@ -503,6 +512,9 @@
     <t>Extension.extension:name.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.name</t>
+  </si>
+  <si>
     <t>Extension.extension:name.value[x]</t>
   </si>
   <si>
@@ -531,6 +543,9 @@
   </si>
   <si>
     <t>Extension.extension:title.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.title</t>
   </si>
   <si>
     <t>Extension.extension:title.value[x]</t>
@@ -564,6 +579,9 @@
     <t>Extension.extension:status.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.status</t>
+  </si>
+  <si>
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
@@ -607,6 +625,9 @@
     <t>Extension.extension:experimental.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.experimental</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental.value[x]</t>
   </si>
   <si>
@@ -642,6 +663,9 @@
     <t>Extension.extension:date.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.date</t>
+  </si>
+  <si>
     <t>Extension.extension:date.value[x]</t>
   </si>
   <si>
@@ -676,6 +700,9 @@
     <t>Extension.extension:publisher.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.publisher</t>
+  </si>
+  <si>
     <t>Extension.extension:publisher.value[x]</t>
   </si>
   <si>
@@ -707,6 +734,9 @@
     <t>Extension.extension:contact.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.contact</t>
+  </si>
+  <si>
     <t>Extension.extension:contact.value[x]</t>
   </si>
   <si>
@@ -741,6 +771,9 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.description</t>
+  </si>
+  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -775,6 +808,9 @@
     <t>Extension.extension:useContext.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.useContext</t>
+  </si>
+  <si>
     <t>Extension.extension:useContext.value[x]</t>
   </si>
   <si>
@@ -810,6 +846,9 @@
     <t>Extension.extension:jurisdiction.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.jurisdiction</t>
+  </si>
+  <si>
     <t>Extension.extension:jurisdiction.value[x]</t>
   </si>
   <si>
@@ -853,6 +892,9 @@
     <t>Extension.extension:purpose.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.purpose</t>
+  </si>
+  <si>
     <t>Extension.extension:purpose.value[x]</t>
   </si>
   <si>
@@ -883,6 +925,9 @@
     <t>Extension.extension:copyright.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.copyright</t>
+  </si>
+  <si>
     <t>Extension.extension:copyright.value[x]</t>
   </si>
   <si>
@@ -913,6 +958,9 @@
     <t>Extension.extension:copyrightLabel.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.copyrightLabel</t>
+  </si>
+  <si>
     <t>Extension.extension:copyrightLabel.value[x]</t>
   </si>
   <si>
@@ -940,6 +988,9 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.type</t>
+  </si>
+  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -976,6 +1027,9 @@
     <t>Extension.extension:documentation.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.documentation</t>
+  </si>
+  <si>
     <t>Extension.extension:documentation.value[x]</t>
   </si>
   <si>
@@ -1001,6 +1055,9 @@
   </si>
   <si>
     <t>Extension.extension:reference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.reference</t>
   </si>
   <si>
     <t>Extension.extension:reference.value[x]</t>
@@ -1034,6 +1091,9 @@
     <t>Extension.extension:capabilities.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.capabilities</t>
+  </si>
+  <si>
     <t>Extension.extension:capabilities.value[x]</t>
   </si>
   <si>
@@ -1063,6 +1123,9 @@
   </si>
   <si>
     <t>Extension.extension:derivedFrom.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.derivedFrom</t>
   </si>
   <si>
     <t>Extension.extension:derivedFrom.value[x]</t>
@@ -2227,7 +2290,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2269,7 +2332,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2284,15 +2347,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2374,7 +2437,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2386,21 +2449,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2425,16 +2488,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2503,7 +2566,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2606,7 +2669,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2711,7 +2774,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2754,7 +2817,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2796,7 +2859,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2811,15 +2874,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2845,13 +2908,13 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2901,7 +2964,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2913,21 +2976,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2952,16 +3015,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3030,7 +3093,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3133,7 +3196,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3238,7 +3301,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3281,7 +3344,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3323,7 +3386,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3338,15 +3401,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3369,16 +3432,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3428,7 +3491,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3440,21 +3503,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3479,16 +3542,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3557,7 +3620,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3660,7 +3723,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3765,7 +3828,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3808,7 +3871,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3850,7 +3913,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3865,15 +3928,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3899,13 +3962,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3955,7 +4018,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3967,21 +4030,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4006,16 +4069,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4084,7 +4147,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4187,7 +4250,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4292,7 +4355,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4335,7 +4398,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4377,7 +4440,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4392,15 +4455,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4426,13 +4489,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4482,7 +4545,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4494,21 +4557,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4533,16 +4596,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4611,7 +4674,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4714,7 +4777,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4819,7 +4882,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4862,7 +4925,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4904,7 +4967,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4919,15 +4982,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4950,16 +5013,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4985,13 +5048,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5009,7 +5072,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5021,21 +5084,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5060,16 +5123,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5138,7 +5201,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5241,7 +5304,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5346,7 +5409,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5389,7 +5452,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5431,7 +5494,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5446,15 +5509,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5477,16 +5540,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5536,7 +5599,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5548,21 +5611,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5587,16 +5650,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5665,7 +5728,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -5768,7 +5831,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -5873,7 +5936,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -5916,7 +5979,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5958,7 +6021,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -5973,15 +6036,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6004,16 +6067,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6063,7 +6126,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6075,21 +6138,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6114,16 +6177,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6192,7 +6255,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6295,7 +6358,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6400,7 +6463,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -6443,7 +6506,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6485,7 +6548,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6500,15 +6563,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6534,13 +6597,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6590,7 +6653,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6602,21 +6665,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6641,16 +6704,16 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6719,7 +6782,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -6822,7 +6885,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -6927,7 +6990,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -6970,7 +7033,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7012,7 +7075,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7027,15 +7090,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7058,16 +7121,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7117,7 +7180,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7129,21 +7192,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7168,16 +7231,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7246,7 +7309,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7349,7 +7412,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7454,7 +7517,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -7497,7 +7560,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7539,7 +7602,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -7554,15 +7617,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7585,16 +7648,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7644,7 +7707,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7656,21 +7719,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7695,16 +7758,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7773,7 +7836,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -7876,7 +7939,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -7981,7 +8044,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8024,7 +8087,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8066,7 +8129,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -8081,15 +8144,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8112,16 +8175,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8171,7 +8234,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8183,21 +8246,21 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8222,16 +8285,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8300,7 +8363,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8403,7 +8466,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8508,7 +8571,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8551,7 +8614,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8593,7 +8656,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -8608,15 +8671,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8639,16 +8702,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8674,13 +8737,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -8698,7 +8761,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8710,21 +8773,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8749,16 +8812,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8827,7 +8890,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -8930,7 +8993,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9035,7 +9098,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9078,7 +9141,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9120,7 +9183,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9135,15 +9198,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9166,16 +9229,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9225,7 +9288,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9237,21 +9300,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9276,16 +9339,16 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9354,7 +9417,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -9457,7 +9520,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -9562,7 +9625,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -9605,7 +9668,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9647,7 +9710,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -9662,15 +9725,15 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9693,16 +9756,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9752,7 +9815,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -9764,21 +9827,21 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9803,16 +9866,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9881,7 +9944,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -9984,7 +10047,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10089,7 +10152,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10132,7 +10195,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10174,7 +10237,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -10189,15 +10252,15 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10223,13 +10286,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10279,7 +10342,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10291,21 +10354,21 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10330,14 +10393,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10406,7 +10469,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -10509,7 +10572,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -10614,7 +10677,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -10657,7 +10720,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10699,7 +10762,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>86</v>
@@ -10714,15 +10777,15 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10745,13 +10808,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10778,13 +10841,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -10802,7 +10865,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -10814,21 +10877,21 @@
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -10853,16 +10916,16 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -10931,7 +10994,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11034,7 +11097,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11139,7 +11202,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11182,7 +11245,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11224,7 +11287,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -11239,15 +11302,15 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11270,16 +11333,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -11329,7 +11392,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -11341,21 +11404,21 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11380,14 +11443,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11456,7 +11519,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -11559,7 +11622,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -11664,7 +11727,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -11707,7 +11770,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11749,7 +11812,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>86</v>
@@ -11764,15 +11827,15 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11795,13 +11858,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11852,7 +11915,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -11864,21 +11927,21 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11903,14 +11966,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -11979,7 +12042,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12082,7 +12145,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12187,7 +12250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12230,7 +12293,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12272,7 +12335,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>86</v>
@@ -12287,15 +12350,15 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12318,13 +12381,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12375,7 +12438,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -12387,21 +12450,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12426,14 +12489,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12502,7 +12565,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -12605,7 +12668,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -12710,7 +12773,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -12753,7 +12816,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12795,7 +12858,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>86</v>
@@ -12810,15 +12873,15 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12841,13 +12904,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -12898,7 +12961,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -12910,18 +12973,18 @@
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13003,7 +13066,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>86</v>
@@ -13018,15 +13081,15 @@
         <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13049,13 +13112,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -13106,7 +13169,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -13118,10 +13181,10 @@
         <v>77</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ActorDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ActorDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -589,15 +589,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -856,15 +847,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-jurisdiction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:purpose</t>
   </si>
   <si>
@@ -992,12 +974,6 @@
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
-  </si>
-  <si>
-    <t>The type of actor - system or human.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-examplescenario-actor-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:documentation</t>
@@ -1097,7 +1073,7 @@
     <t>Extension.extension:capabilities.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|0.0.1-snapshot-3|CapabilityStatement|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|CapabilityStatement)
 </t>
   </si>
   <si>
@@ -1131,7 +1107,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActorDefinition|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActorDefinition|Basic)
 </t>
   </si>
   <si>
@@ -1492,8 +1468,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.2890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.93359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -5048,13 +5024,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5092,13 +5068,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5123,16 +5099,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5201,7 +5177,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5304,7 +5280,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5409,7 +5385,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5452,7 +5428,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5514,7 +5490,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -5540,16 +5516,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5619,13 +5595,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5650,16 +5626,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5728,7 +5704,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -5831,7 +5807,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -5936,7 +5912,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -5979,7 +5955,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6041,7 +6017,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -6067,16 +6043,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6146,13 +6122,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6177,16 +6153,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6255,7 +6231,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6358,7 +6334,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6463,7 +6439,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -6506,7 +6482,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6568,7 +6544,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>124</v>
@@ -6597,13 +6573,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6673,13 +6649,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6704,16 +6680,16 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6782,7 +6758,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -6885,7 +6861,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -6990,7 +6966,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7033,7 +7009,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7095,7 +7071,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>124</v>
@@ -7121,16 +7097,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7200,13 +7176,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7231,16 +7207,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7309,7 +7285,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7412,7 +7388,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7517,7 +7493,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -7560,7 +7536,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7622,7 +7598,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>124</v>
@@ -7648,16 +7624,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7727,13 +7703,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7758,16 +7734,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7836,7 +7812,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -7939,7 +7915,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8044,7 +8020,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8087,7 +8063,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8149,7 +8125,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>124</v>
@@ -8175,16 +8151,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8254,13 +8230,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8285,16 +8261,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8339,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8466,7 +8442,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8571,7 +8547,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8614,7 +8590,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8676,7 +8652,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>124</v>
@@ -8702,16 +8678,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8737,13 +8713,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -8781,13 +8757,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8812,16 +8788,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8890,7 +8866,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -8993,7 +8969,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9098,7 +9074,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9141,7 +9117,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9203,7 +9179,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>124</v>
@@ -9229,16 +9205,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9308,13 +9284,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9339,16 +9315,16 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9417,7 +9393,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -9520,7 +9496,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -9625,7 +9601,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -9668,7 +9644,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9730,7 +9706,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>124</v>
@@ -9756,16 +9732,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9835,13 +9811,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9866,16 +9842,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9944,7 +9920,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10047,7 +10023,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10152,7 +10128,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10195,7 +10171,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10257,7 +10233,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>124</v>
@@ -10286,13 +10262,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10362,13 +10338,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10393,14 +10369,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10469,7 +10445,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -10572,7 +10548,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -10677,7 +10653,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -10720,7 +10696,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10782,7 +10758,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>124</v>
@@ -10811,10 +10787,10 @@
         <v>183</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10841,13 +10817,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -10885,13 +10861,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -10916,16 +10892,16 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -10994,7 +10970,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11097,7 +11073,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11202,7 +11178,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11245,7 +11221,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11307,7 +11283,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>124</v>
@@ -11333,16 +11309,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -11412,13 +11388,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11443,14 +11419,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11519,7 +11495,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -11622,7 +11598,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -11727,7 +11703,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -11770,7 +11746,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11832,7 +11808,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>124</v>
@@ -11858,13 +11834,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11935,13 +11911,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11966,14 +11942,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12042,7 +12018,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12145,7 +12121,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12250,7 +12226,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12293,7 +12269,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12355,7 +12331,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>124</v>
@@ -12381,13 +12357,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12458,13 +12434,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12489,14 +12465,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12565,7 +12541,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -12668,7 +12644,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -12773,7 +12749,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -12816,7 +12792,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12878,7 +12854,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>124</v>
@@ -12904,13 +12880,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13112,13 +13088,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>

--- a/StructureDefinition-ext-R5-ActorDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ActorDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3717" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -485,6 +485,12 @@
 Coding</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-version-algorithm-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -589,6 +595,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -976,6 +991,12 @@
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
+    <t>The type of actor - system or human.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/examplescenario-actor-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:documentation</t>
   </si>
   <si>
@@ -1073,7 +1094,7 @@
     <t>Extension.extension:capabilities.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|CapabilityStatement)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|0.0.1-snapshot-3|CapabilityStatement|4.0.1)
 </t>
   </si>
   <si>
@@ -1107,7 +1128,7 @@
     <t>Extension.extension:derivedFrom.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActorDefinition|Basic)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActorDefinition|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -1468,8 +1489,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="30.53125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3443,13 +3464,11 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3487,13 +3506,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3518,16 +3537,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3596,7 +3615,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3699,7 +3718,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3804,7 +3823,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3847,7 +3866,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3909,7 +3928,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3938,13 +3957,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4014,13 +4033,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4045,16 +4064,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4123,7 +4142,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4226,7 +4245,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4331,7 +4350,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4374,7 +4393,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4436,7 +4455,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -4465,13 +4484,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4541,13 +4560,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4572,16 +4591,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4650,7 +4669,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4753,7 +4772,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4858,7 +4877,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4901,7 +4920,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4963,7 +4982,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -4989,16 +5008,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5024,13 +5043,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5068,13 +5087,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5099,16 +5118,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5177,7 +5196,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5280,7 +5299,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5385,7 +5404,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5428,7 +5447,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5490,7 +5509,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -5516,16 +5535,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5595,13 +5614,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5626,16 +5645,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5704,7 +5723,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -5807,7 +5826,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -5912,7 +5931,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -5955,7 +5974,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6017,7 +6036,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -6043,16 +6062,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6122,13 +6141,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6153,16 +6172,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6231,7 +6250,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6334,7 +6353,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6439,7 +6458,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -6482,7 +6501,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6544,7 +6563,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>124</v>
@@ -6573,13 +6592,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6649,13 +6668,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6680,16 +6699,16 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6758,7 +6777,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -6861,7 +6880,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -6966,7 +6985,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7009,7 +7028,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7071,7 +7090,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>124</v>
@@ -7097,16 +7116,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7176,13 +7195,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7207,16 +7226,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7285,7 +7304,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7388,7 +7407,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7493,7 +7512,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -7536,7 +7555,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7598,7 +7617,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>124</v>
@@ -7624,16 +7643,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7703,13 +7722,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7734,16 +7753,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7812,7 +7831,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -7915,7 +7934,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8020,7 +8039,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8063,7 +8082,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8125,7 +8144,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>124</v>
@@ -8151,16 +8170,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8230,13 +8249,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8261,16 +8280,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8339,7 +8358,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8442,7 +8461,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8547,7 +8566,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8590,7 +8609,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8652,7 +8671,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>124</v>
@@ -8678,16 +8697,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8757,13 +8776,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8788,16 +8807,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8866,7 +8885,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -8969,7 +8988,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9074,7 +9093,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9117,7 +9136,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9179,7 +9198,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>124</v>
@@ -9205,16 +9224,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9284,13 +9303,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9315,16 +9334,16 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9393,7 +9412,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -9496,7 +9515,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -9601,7 +9620,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -9644,7 +9663,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9706,7 +9725,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>124</v>
@@ -9732,16 +9751,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9811,13 +9830,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9842,16 +9861,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9920,7 +9939,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10023,7 +10042,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10128,7 +10147,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10171,7 +10190,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10233,7 +10252,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>124</v>
@@ -10262,13 +10281,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10338,13 +10357,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10369,14 +10388,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10445,7 +10464,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -10548,7 +10567,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -10653,7 +10672,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -10696,7 +10715,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10758,7 +10777,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>124</v>
@@ -10784,13 +10803,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10817,13 +10836,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -10861,13 +10880,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -10892,16 +10911,16 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -10970,7 +10989,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11073,7 +11092,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11178,7 +11197,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11221,7 +11240,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11283,7 +11302,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>124</v>
@@ -11309,16 +11328,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -11388,13 +11407,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11419,14 +11438,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11495,7 +11514,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -11598,7 +11617,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -11703,7 +11722,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -11746,7 +11765,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11808,7 +11827,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>124</v>
@@ -11834,13 +11853,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11911,13 +11930,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11942,14 +11961,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12018,7 +12037,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12121,7 +12140,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12226,7 +12245,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12269,7 +12288,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12331,7 +12350,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>124</v>
@@ -12357,13 +12376,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12434,13 +12453,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12465,14 +12484,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12541,7 +12560,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -12644,7 +12663,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -12749,7 +12768,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -12792,7 +12811,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12854,7 +12873,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>124</v>
@@ -12880,13 +12899,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13088,13 +13107,13 @@
         <v>77</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
